--- a/biology/Zoologie/Calanoida/Calanoida.xlsx
+++ b/biology/Zoologie/Calanoida/Calanoida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calanoida est un ordre de crustacés qui contient de nombreuses familles de copépodes. C'est l'ordre de copépodes le plus représenté dans le plancton marin.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces copépodes ont colonisé aussi bien les eaux salées que saumâtres ou douces. Ce sont des animaux libres, le plus souvent planctoniques, mais il existe des espèces benthiques[1]. On les trouve partout dans le monde, des abysses jusqu'à la surface.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces copépodes ont colonisé aussi bien les eaux salées que saumâtres ou douces. Ce sont des animaux libres, le plus souvent planctoniques, mais il existe des espèces benthiques. On les trouve partout dans le monde, des abysses jusqu'à la surface.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ITIS:
 famille Acartiidae Sars, 1900
